--- a/biology/Biochimie/Spectrophotomètre/Spectrophotomètre.xlsx
+++ b/biology/Biochimie/Spectrophotomètre/Spectrophotomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A8tre</t>
+          <t>Spectrophotomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un spectrophotomètre est un instrument permettant de réaliser une mesure spectrophotométrique[1]. Un spectromètre, ou spectroscope, est un appareil qui permet d'effectuer une mesure spectrométrique de l'absorbance d'une solution à une longueur d'onde donnée ou sur une région donnée du spectre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un spectrophotomètre est un instrument permettant de réaliser une mesure spectrophotométrique. Un spectromètre, ou spectroscope, est un appareil qui permet d'effectuer une mesure spectrométrique de l'absorbance d'une solution à une longueur d'onde donnée ou sur une région donnée du spectre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A8tre</t>
+          <t>Spectrophotomètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la loi de Beer-Lambert, l'absorbance d'une solution est proportionnelle à la concentration des substances en solution, à condition de se placer à la longueur d'onde à laquelle la substance absorbe les rayons lumineux. C'est pourquoi la longueur d'onde est réglée en fonction de la substance dont on veut connaître la concentration.
 D'après la loi de Beer-Lambert, l'absorbance 
@@ -522,7 +536,7 @@
           ε
             λ
     {\displaystyle \varepsilon _{\lambda }}
- et de la longueur de solution à traverser L[2].
+ et de la longueur de solution à traverser L.
           A
             λ
         =
@@ -594,7 +608,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A8tre</t>
+          <t>Spectrophotomètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -614,8 +628,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En biologie
-Le spectromètre est utilisé lors de la réalisation du test MTT.
+          <t>En biologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spectromètre est utilisé lors de la réalisation du test MTT.
 En biologie moléculaire, il est utilisé lors de l'extraction d'ADN, pour quantifier l'ADN et déterminer sa pureté. On utilise la longueur d'onde 260 nm qui est la zone d'absorbance maximale des acides nucléiques. Une seconde mesure à 280 nm permet de contrôler la pureté de l'extraction, à savoir la présence de protéines résiduelles dans la solution d'ADN.
 Pour une solution d'ADN purifiée, le rapport R. doit être compris entre 1,8 et 2. Si R est nettement inférieur à 1,8 alors des protéines contaminent probablement la solution. Supérieur à 2, ce rapport indique une probable contamination par des ARN.
 R = (A260 - A320)/(A280 - A320)
@@ -625,15 +644,155 @@
 ADN simple-brin : 33 ng/µl (comme l'ARN simple brin)
 ARN : 1 Abs = 40 ng/µl.
 En biochimie, il est utilisé lors de la purification de protéines, pour les quantifier (longueur d'onde 280 nm) et déterminer leur niveau de pureté (longueur d'onde 260 nm).
-En médecine
-L'analyse cinétique de différentes enzymes sanguines, dosage de la phosphatase alcaline : cholestase, lactate déshydrogénase : infarctus du myocarde, hémolyse.
-En physique
-L'analyse de la lumière permet de déterminer les composants chimiques à l'origine de l'émission lumineuse : par exemple, la composition chimique des étoiles.
-En chimie
-L'analyse de l'absorption des solutions à une longueur d'onde donnée permet le dosage de ces solutions selon la loi de Beer-Lambert (la concentration est proportionnelle au logarithme de l'absorption lumineuse). Il y a donc relation directe entre la quantité de lumière absorbée et la concentration en composé chimique de la solution. Le suivi dans le temps de l'absorption est une méthode de caractérisation de la vitesse de réactions chimiques (cinétique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Spectrophotomètre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A8tre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Domaines d'application</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse cinétique de différentes enzymes sanguines, dosage de la phosphatase alcaline : cholestase, lactate déshydrogénase : infarctus du myocarde, hémolyse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Spectrophotomètre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A8tre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Domaines d'application</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En physique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse de la lumière permet de déterminer les composants chimiques à l'origine de l'émission lumineuse : par exemple, la composition chimique des étoiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spectrophotomètre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A8tre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Domaines d'application</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En chimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse de l'absorption des solutions à une longueur d'onde donnée permet le dosage de ces solutions selon la loi de Beer-Lambert (la concentration est proportionnelle au logarithme de l'absorption lumineuse). Il y a donc relation directe entre la quantité de lumière absorbée et la concentration en composé chimique de la solution. Le suivi dans le temps de l'absorption est une méthode de caractérisation de la vitesse de réactions chimiques (cinétique).
 Un balayage en fréquence permet de caractériser l'espèce présente en solution en remontant à la nature de la transition énergétique considérée.
-Dans les industries graphiques
-Il permet de mesurer les couleurs afin de calibrer des périphériques de sortie tels que les traceurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spectrophotomètre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A8tre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Domaines d'application</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans les industries graphiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet de mesurer les couleurs afin de calibrer des périphériques de sortie tels que les traceurs.
 </t>
         </is>
       </c>
